--- a/Assignemnt Bug finder.xlsx
+++ b/Assignemnt Bug finder.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4871\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938255C7-70BF-4A22-9C81-8C9B405B0B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A902D1-A79D-40DF-829F-488A32B97CAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bug Reporting" sheetId="1" r:id="rId1"/>
@@ -26,14 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="129">
   <si>
     <t>Description of the Bug</t>
   </si>
   <si>
-    <t>Title / Summary</t>
-  </si>
-  <si>
     <t>Reprting Date</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
   </si>
   <si>
     <t>Step to Reproduce</t>
-  </si>
-  <si>
-    <t>Test data used</t>
   </si>
   <si>
     <t>ScreenShots</t>
@@ -132,9 +126,6 @@
 Fill in the form and click "Send"</t>
   </si>
   <si>
-    <t>“Content” bug</t>
-  </si>
-  <si>
     <t>In this bug, the short description and description of the product are not in English.</t>
   </si>
   <si>
@@ -150,13 +141,369 @@
     <t>Open https://academybugs.com
 Click the Find Bugs link on the navigation bar
 Open a product and then see the description</t>
+  </si>
+  <si>
+    <t>Open https://academybugs.com
+Click the Find Bugs link on the navigation bar
+Click on the buttons to show a certain number of results at the top left</t>
+  </si>
+  <si>
+    <t>In this bug, the product quantity cannot be increased past 2.</t>
+  </si>
+  <si>
+    <t>The product quantity can be increased past 2</t>
+  </si>
+  <si>
+    <t>When clicking on the update button the product quantity becomes 2 again</t>
+  </si>
+  <si>
+    <t>In this bug, the Sign In button overlaps the footer.</t>
+  </si>
+  <si>
+    <t>Open https://academybugs.com
+Click the Find Bugs link on the navigation bar
+Add one or more products to the cart
+Click the "View cart" link on top of the page
+Set the products quantity to 3 or more
+Click "update" below</t>
+  </si>
+  <si>
+    <t>The Sign In button is above the footer</t>
+  </si>
+  <si>
+    <t>The Sign In button overlaps the footer</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Visual</t>
+  </si>
+  <si>
+    <t>n this bug, the caption of the Sign In button is misaligned vertically</t>
+  </si>
+  <si>
+    <t>The caption of the Sign In button is centered vertically</t>
+  </si>
+  <si>
+    <t>The caption of the Sign In button is misaligned vertically</t>
+  </si>
+  <si>
+    <t>In this bug, there are unreadable symbols in the shopping cart popup.</t>
+  </si>
+  <si>
+    <t>All characters are clear to a regular user</t>
+  </si>
+  <si>
+    <t>There are unreadable symbols in the shopping cart popup</t>
+  </si>
+  <si>
+    <t>In this bug, the twitter share button in the product details page is broken.</t>
+  </si>
+  <si>
+    <t>The twitter share button shows an appropriate page</t>
+  </si>
+  <si>
+    <t>The twitter share button shows an error page</t>
+  </si>
+  <si>
+    <t>Functional</t>
+  </si>
+  <si>
+    <t>In this bug, the manufacturer link in the product details page is broken.</t>
+  </si>
+  <si>
+    <t>The manufacturer link shows an appropriate page</t>
+  </si>
+  <si>
+    <t>The manufacturer link opens an error page</t>
+  </si>
+  <si>
+    <t>In this bug, the yellow and orange colors of the product are misspelled.</t>
+  </si>
+  <si>
+    <t>The yellow and orange colors are spelled correctly</t>
+  </si>
+  <si>
+    <t>Yellow is misspelled as "Yelow" and Orange as "Orang"</t>
+  </si>
+  <si>
+    <t>In this bug, item images have unnecessary space underneath.</t>
+  </si>
+  <si>
+    <t>Item images have no space underneath</t>
+  </si>
+  <si>
+    <t>Item images have unnecessary space underneath</t>
+  </si>
+  <si>
+    <t>In this bug, the billing information isn't updated.</t>
+  </si>
+  <si>
+    <t>Billing information is updated after filling out the form and clicking "Update"</t>
+  </si>
+  <si>
+    <t>Billing information loads infinitely after filling out the form and clicking "Update"</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>In this bug, the billing address loads infinitely.</t>
+  </si>
+  <si>
+    <t>The Billing Address section shows appropriate info</t>
+  </si>
+  <si>
+    <t>The Billing Address section loads infinitely</t>
+  </si>
+  <si>
+    <t>In this bug, the text under the New User section is not in English.</t>
+  </si>
+  <si>
+    <t>The text under the New User section is in English</t>
+  </si>
+  <si>
+    <t>The text under the New User section is in another language</t>
+  </si>
+  <si>
+    <t>In this bug, the title of the password field is misaligned.</t>
+  </si>
+  <si>
+    <t>The title of the password field is aligned the same as the field above</t>
+  </si>
+  <si>
+    <t>The title of the password field is not aligned the same as the field above</t>
+  </si>
+  <si>
+    <t>In this bug, the page becomes unresponsive when clicking on the Retrieve Password button.</t>
+  </si>
+  <si>
+    <t>The password is sent to the entered email</t>
+  </si>
+  <si>
+    <t>The page becomes unresponsive when clicking on "Retrieve Password" and no email is sent</t>
+  </si>
+  <si>
+    <t>Crash</t>
+  </si>
+  <si>
+    <t>Content bug</t>
+  </si>
+  <si>
+    <t>Functional bug</t>
+  </si>
+  <si>
+    <t>Visual bug</t>
+  </si>
+  <si>
+    <t>Performance bug</t>
+  </si>
+  <si>
+    <t>Crash bug</t>
+  </si>
+  <si>
+    <t>Open https://academybugs.com
+Click the Find Bugs link on the navigation bar
+Open a product
+Scroll to the bottom and find the sign in form in the right side menu
+Enter any login and password that are not registered and click "Sign In"</t>
+  </si>
+  <si>
+    <t>Open https://academybugs.com
+Click the Find Bugs link on the navigation bar
+Add one or more products to the cart
+Click "View Cart" on top of the page
+Scroll down to the Shopping Cart section of the right side menu
+Hover over the Shopping Cart caption</t>
+  </si>
+  <si>
+    <t>Open https://academybugs.com
+Click the Find Bugs link on the navigation bar
+Open a product
+Click the twitter share button</t>
+  </si>
+  <si>
+    <t>Open https://academybugs.com
+Click the Find Bugs link on the navigation bar
+Open a product
+Click the manufacturer link under the quantity</t>
+  </si>
+  <si>
+    <t>Open https://academybugs.com
+Click the Find Bugs link on the navigation bar
+Open a product with color options
+Choose the Yellow and Orange colors</t>
+  </si>
+  <si>
+    <t>Open https://academybugs.com
+Click the Find Bugs link on the navigation bar
+Open a product
+Find the Store Menu section in the right side menu
+Choose All Items</t>
+  </si>
+  <si>
+    <t>Open https://academybugs.com
+Click the Find Bugs link on the navigation bar
+Open a product
+Click "Sign Up" at the bottom of right side menu
+Sign up with fake data if you are not signed up. Otherwise enter your credentials and log in
+At the bottom of the right side menu select Billing Information
+Fill out the billing information form
+Click "Update"</t>
+  </si>
+  <si>
+    <t>Open https://academybugs.com
+Click the Find Bugs link on the navigation bar
+Open a product
+Sign up if you are not signed up or log in at the bottom of right side menu
+At the bottom of the right side menu select Dashboard
+Scroll up to the Billing Address section</t>
+  </si>
+  <si>
+    <t>Open https://academybugs.com
+Click the Find Bugs link on the navigation bar
+Open a product
+Scroll down to the bottom of the right side menu
+Click "Sign In" to open the sign in page</t>
+  </si>
+  <si>
+    <t>Open https://academybugs.com
+Click the Find Bugs link on the navigation bar
+Open a product
+Scroll down to the bottom of the right side menu
+Click "Sign In" without filling the form to open the Sign In page</t>
+  </si>
+  <si>
+    <t>Open https://academybugs.com
+Click the Find Bugs link on the navigation bar
+Open a product
+Scroll down to the Your Account section of the right side menu
+Click "Sign Up"
+In the Returning Customer section click "Forgot Your Password?"
+Enter your email in the field and click "Retrieve Password"</t>
+  </si>
+  <si>
+    <t>Open https://academybugs.com
+Click the Find Bugs link on the navigation bar
+Open a product
+Click the My Space share link</t>
+  </si>
+  <si>
+    <t>In this bug, the My Space share page loads infinitely.</t>
+  </si>
+  <si>
+    <t>The user is able to share the product through My Space</t>
+  </si>
+  <si>
+    <t>My Space share page loads infinitely</t>
+  </si>
+  <si>
+    <t>In this bug, the order history loads infinitely.</t>
+  </si>
+  <si>
+    <t>Your Order History section shows appropriate info</t>
+  </si>
+  <si>
+    <t>Your Order History section loads infinitely</t>
+  </si>
+  <si>
+    <t>EveryTime</t>
+  </si>
+  <si>
+    <t>Action Performed
+Open https://academybugs.com
+Click the Find Bugs link on the navigation bar
+Open a product
+Sign up if you are not signed up or log in at the bottom of right side menu
+At the bottom of the right side menu select Order History</t>
+  </si>
+  <si>
+    <t>In this bug, the page freezes when increasing the product quantity having green or pink colors chosen.</t>
+  </si>
+  <si>
+    <t>The quantity is increased to a desired value</t>
+  </si>
+  <si>
+    <t>The page becomes unresponsive when increasing the quantity with the pink or green colors chosen</t>
+  </si>
+  <si>
+    <t>Open https://academybugs.com
+Click the Find Bugs link on the navigation bar
+Open a product that has color options
+Choose the pink or green color
+Increase the product quantity by 1 or more</t>
+  </si>
+  <si>
+    <t>Open https://academybugs.com
+Click the Find Bugs link on the navigation bar
+Open a product
+Open the cart at the bottom of right side menu
+Clear the cart if there are any items</t>
+  </si>
+  <si>
+    <t>In this bug, there is big space before the last letter in "Return to Store".</t>
+  </si>
+  <si>
+    <t>The caption of the "Return to Store" button is written with even spacing between letters</t>
+  </si>
+  <si>
+    <t>There is too much space before the last letter in "Return to Store"</t>
+  </si>
+  <si>
+    <t>EveryTme</t>
+  </si>
+  <si>
+    <t>In this bug, the grand total is $100 more than the sum of all products in the cart.</t>
+  </si>
+  <si>
+    <t>The grand total is equal to the sum of all products in the cart</t>
+  </si>
+  <si>
+    <t>The grand total is $100 more than the sum of all products in the cart</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>Open https://academybugs.com
+Click the Find Bugs link on the navigation bar
+Add one or more products to the cart
+Click the "View cart" link on top of the page, or click "Continue to Shipping" in the checkout details page</t>
+  </si>
+  <si>
+    <t>Bug type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grey Jeans bug </t>
+  </si>
+  <si>
+    <t>In this bug when we comment and then reply both will be disappeared.</t>
+  </si>
+  <si>
+    <t>In this bug the brecelet in the cart can't be ordered.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Both of these comments and replies should be shown </t>
+  </si>
+  <si>
+    <t>Incase of reply both will be disappeared.</t>
+  </si>
+  <si>
+    <t>All the items should be orderd accordingly.</t>
+  </si>
+  <si>
+    <t>Item was not ordered.</t>
+  </si>
+  <si>
+    <t>Not Executed in this test envirnoment.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,29 +543,35 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF5F6368"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF5F6368"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -235,28 +588,36 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -284,8 +645,8 @@
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4200525</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -328,8 +689,8 @@
       <xdr:rowOff>22410</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4210050</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -372,8 +733,8 @@
       <xdr:rowOff>2362199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4200525</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
@@ -416,8 +777,8 @@
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4200525</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>2266035</xdr:rowOff>
     </xdr:to>
@@ -444,6 +805,798 @@
         <a:xfrm>
           <a:off x="4800773" y="7686674"/>
           <a:ext cx="4219402" cy="2237461"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4986</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4181475</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2219325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{484D7B49-20A3-4572-B189-A86D1797FC96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4824636" y="9953625"/>
+          <a:ext cx="4176489" cy="2219325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1123949</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2196670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4190999</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1866900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F0A0613-3BDB-4F26-882D-004308517BF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4791074" y="12150295"/>
+          <a:ext cx="4219575" cy="1908605"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12603</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4191001</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2358728</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{918E9C5D-9045-42CB-B757-E0751574D4AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4832253" y="14097001"/>
+          <a:ext cx="4178398" cy="2349202"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1143893</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2390774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4229099</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2382560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C92C2E07-8F82-4F88-B9AC-A962E8C2474C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4811018" y="16478249"/>
+          <a:ext cx="4237731" cy="2382561"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>37034</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4191000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2466060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1845180-2208-4E09-ABE0-52612D4D8307}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4856684" y="18907125"/>
+          <a:ext cx="4153966" cy="2447010"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2333626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4200525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2876550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B6EAABC-83F0-48C3-BDA5-8ECC12EA27FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4819650" y="21221701"/>
+          <a:ext cx="4200525" cy="3047999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>23958</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2990850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{570619A2-A099-48A1-9F59-0F20FF37334F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4848225" y="24298274"/>
+          <a:ext cx="4243533" cy="2981326"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEB41AE9-FED3-4EB1-B167-B1AA81473611}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4819652" y="27308175"/>
+          <a:ext cx="4257674" cy="3143250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>3524250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9022AF6-814A-4F88-AB44-7BDDDED1B086}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4819650" y="30451425"/>
+          <a:ext cx="4305300" cy="3524250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>3477110</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE2CB441-C8C9-456D-B553-A42846DEF5EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4819650" y="33985200"/>
+          <a:ext cx="4286250" cy="3477110"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4133850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2381250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5CB71D-A1E0-4FA1-A9FB-B260D39CD109}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4819650" y="37480875"/>
+          <a:ext cx="4133850" cy="2381250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4210050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2600325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39F26AA5-B8D5-4254-9941-56C31A7D965D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4819650" y="39909750"/>
+          <a:ext cx="4210050" cy="2600325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4238625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2762251</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF38DB3C-C9A1-44D4-A419-B37DEAB3C71F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4819650" y="42557701"/>
+          <a:ext cx="4238625" cy="2762250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4172532</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>3590925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F90F0FD-36F3-42DD-AEF6-9D894E8D9C9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4819650" y="45377100"/>
+          <a:ext cx="4172532" cy="3590925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>2505425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F02E74B4-26C1-4A5C-8F91-4E939876338F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4819650" y="49006125"/>
+          <a:ext cx="4257675" cy="2505425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>3990975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25D406EF-2DAF-40DD-AE09-1647F1814659}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4819651" y="51530250"/>
+          <a:ext cx="4248150" cy="3990975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>3990976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4238625</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>2705100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFE0FC45-81B4-417C-A5AD-806A0751451A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="55521226"/>
+          <a:ext cx="4257675" cy="2733674"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4229100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>2381251</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3AB3F93-0087-4B02-98EF-3166E7B9A60F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4819650" y="58312050"/>
+          <a:ext cx="4229100" cy="2333626"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -720,511 +1873,918 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="79" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" customWidth="1"/>
     <col min="5" max="5" width="16.140625" customWidth="1"/>
     <col min="6" max="6" width="73.28515625" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="66" customWidth="1"/>
+    <col min="8" max="8" width="73" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="H1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="10">
+        <v>45102</v>
+      </c>
+      <c r="E2" s="11">
+        <v>4871</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="10">
+        <v>45102</v>
+      </c>
+      <c r="E3" s="11">
+        <v>4871</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="10">
+        <v>45102</v>
+      </c>
+      <c r="E4" s="11">
+        <v>4871</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="10">
+        <v>45102</v>
+      </c>
+      <c r="E5" s="11">
+        <v>4871</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="10">
+        <v>45102</v>
+      </c>
+      <c r="E6" s="11">
+        <v>4871</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="10">
+        <v>45102</v>
+      </c>
+      <c r="E7" s="11">
+        <v>4871</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="10">
+        <v>45102</v>
+      </c>
+      <c r="E8" s="11">
+        <v>4871</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="B9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="10">
+        <v>45102</v>
+      </c>
+      <c r="E9" s="11">
+        <v>4871</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="G9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="B10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="10">
+        <v>45102</v>
+      </c>
+      <c r="E10" s="11">
+        <v>4871</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="10">
+        <v>45102</v>
+      </c>
+      <c r="E11" s="11">
+        <v>4871</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="10">
+        <v>45102</v>
+      </c>
+      <c r="E12" s="11">
+        <v>4871</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="10">
+        <v>45102</v>
+      </c>
+      <c r="E13" s="11">
+        <v>4871</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="10">
+        <v>45102</v>
+      </c>
+      <c r="E14" s="11">
+        <v>4871</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
         <v>14</v>
       </c>
-      <c r="D2" s="12">
+      <c r="B15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="10">
         <v>45102</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E15" s="11">
         <v>4871</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="10">
+        <v>45102</v>
+      </c>
+      <c r="E16" s="11">
+        <v>4871</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="10">
+        <v>45102</v>
+      </c>
+      <c r="E17" s="11">
+        <v>4871</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="10">
+        <v>45102</v>
+      </c>
+      <c r="E18" s="11">
+        <v>4871</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="10">
+        <v>45102</v>
+      </c>
+      <c r="E19" s="11">
+        <v>4871</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="10">
+        <v>45102</v>
+      </c>
+      <c r="E20" s="11">
+        <v>4871</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
         <v>20</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="B21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="10">
+        <v>45102</v>
+      </c>
+      <c r="E21" s="11">
+        <v>4871</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="14" t="s">
+      <c r="J21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="10">
+        <v>45102</v>
+      </c>
+      <c r="E22" s="11">
+        <v>4871</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="10">
+        <v>45102</v>
+      </c>
+      <c r="E23" s="11">
+        <v>4871</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="10">
+        <v>45102</v>
+      </c>
+      <c r="E24" s="11">
+        <v>4871</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="10">
+        <v>45102</v>
+      </c>
+      <c r="E25" s="11">
+        <v>4871</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="12">
+      <c r="J25" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="10">
         <v>45102</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E26" s="11">
         <v>4871</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="13" t="s">
+      <c r="F26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="12">
-        <v>45102</v>
-      </c>
-      <c r="E4" s="3">
-        <v>4871</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="8">
-        <v>45102</v>
-      </c>
-      <c r="E5">
-        <v>4871</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="D6" s="8">
-        <v>45102</v>
-      </c>
-      <c r="E6">
-        <v>4871</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="J6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="D7" s="8">
-        <v>45102</v>
-      </c>
-      <c r="E7">
-        <v>4871</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="J7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="9"/>
-    </row>
-    <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="D8" s="8">
-        <v>45102</v>
-      </c>
-      <c r="E8">
-        <v>4871</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="9"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="D9" s="8">
-        <v>45102</v>
-      </c>
-      <c r="E9">
-        <v>4871</v>
-      </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="D10" s="8">
-        <v>45102</v>
-      </c>
-      <c r="E10">
-        <v>4871</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="D11" s="8">
-        <v>45102</v>
-      </c>
-      <c r="E11">
-        <v>4871</v>
-      </c>
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>11</v>
-      </c>
-      <c r="D12" s="8">
-        <v>45102</v>
-      </c>
-      <c r="E12">
-        <v>4871</v>
-      </c>
-      <c r="F12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="D13" s="8">
-        <v>45102</v>
-      </c>
-      <c r="E13">
-        <v>4871</v>
-      </c>
-      <c r="F13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="D14" s="8">
-        <v>45102</v>
-      </c>
-      <c r="E14">
-        <v>4871</v>
-      </c>
-      <c r="F14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>14</v>
-      </c>
-      <c r="D15" s="8">
-        <v>45102</v>
-      </c>
-      <c r="E15">
-        <v>4871</v>
-      </c>
-      <c r="F15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>15</v>
-      </c>
-      <c r="D16" s="8">
-        <v>45102</v>
-      </c>
-      <c r="E16">
-        <v>4871</v>
-      </c>
-      <c r="F16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>16</v>
-      </c>
-      <c r="D17" s="8">
-        <v>45102</v>
-      </c>
-      <c r="E17">
-        <v>4871</v>
-      </c>
-      <c r="F17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>17</v>
-      </c>
-      <c r="D18" s="8">
-        <v>45102</v>
-      </c>
-      <c r="E18">
-        <v>4871</v>
-      </c>
-      <c r="F18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>18</v>
-      </c>
-      <c r="D19" s="8">
-        <v>45102</v>
-      </c>
-      <c r="E19">
-        <v>4871</v>
-      </c>
-      <c r="F19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>19</v>
-      </c>
-      <c r="D20" s="8">
-        <v>45102</v>
-      </c>
-      <c r="E20">
-        <v>4871</v>
-      </c>
-      <c r="F20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>20</v>
-      </c>
-      <c r="D21" s="8">
-        <v>45102</v>
-      </c>
-      <c r="E21">
-        <v>4871</v>
-      </c>
-      <c r="F21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>21</v>
-      </c>
-      <c r="D22" s="8">
-        <v>45102</v>
-      </c>
-      <c r="E22">
-        <v>4871</v>
-      </c>
-      <c r="F22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>22</v>
-      </c>
-      <c r="D23" s="8">
-        <v>45102</v>
-      </c>
-      <c r="E23">
-        <v>4871</v>
-      </c>
-      <c r="F23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>23</v>
-      </c>
-      <c r="D24" s="8">
-        <v>45102</v>
-      </c>
-      <c r="E24">
-        <v>4871</v>
-      </c>
-      <c r="F24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>24</v>
-      </c>
-      <c r="D25" s="8">
-        <v>45102</v>
-      </c>
-      <c r="E25">
-        <v>4871</v>
-      </c>
-      <c r="F25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>25</v>
-      </c>
-      <c r="D26" s="8">
-        <v>45102</v>
-      </c>
-      <c r="E26">
-        <v>4871</v>
-      </c>
-      <c r="F26" t="s">
-        <v>20</v>
+      <c r="J26" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1237,8 +2797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55EDADC-9D96-42BB-8078-760F5573C08E}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1246,162 +2806,233 @@
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="36.85546875" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="63" customWidth="1"/>
+    <col min="4" max="4" width="63.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="191.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="186.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="209.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="176.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="188.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="189.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="197.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="228" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B11" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B12" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="249" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="191.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="186.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="209.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
-        <v>3</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
-        <v>4</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="B13" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="278.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="B14" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="275.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="B15" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="191.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="B16" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="208.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="B17" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="222" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="B18" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="285.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="B19" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="198.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="B20" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="316.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="B21" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="213.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="B22" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="192.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="B23" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+      <c r="B24" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="B25" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
         <v>25</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>